--- a/Shading Trees/Charts/FAO Land Change by Activities.xlsx
+++ b/Shading Trees/Charts/FAO Land Change by Activities.xlsx
@@ -414,10 +414,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>-1.278177247598933e-06</v>
+        <v>-0.006840989660467756</v>
       </c>
       <c r="C2">
-        <v>-1.167989691630567e-07</v>
+        <v>-0.0006251249918216573</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -425,10 +425,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3.05002566847179e-06</v>
+        <v>0.01639476845139143</v>
       </c>
       <c r="C3">
-        <v>8.795993622356946e-07</v>
+        <v>0.004728100486627085</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.368980484845906e-05</v>
+        <v>0.127310736114822</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -447,10 +447,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>-1.24000081092035e-06</v>
+        <v>-0.006635612259827894</v>
       </c>
       <c r="C5">
-        <v>-1.133104324813061e-07</v>
+        <v>-0.0006063577443517487</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -458,10 +458,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>-4.023871338176832e-05</v>
+        <v>-0.2154074384393425</v>
       </c>
       <c r="C6">
-        <v>-3.676985684819556e-06</v>
+        <v>-0.01968378210892752</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -469,10 +469,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>-1.692650403128937e-05</v>
+        <v>-0.08974641073382372</v>
       </c>
       <c r="C7">
-        <v>-5.478664206748363e-07</v>
+        <v>-0.002853739048248372</v>
       </c>
     </row>
   </sheetData>
